--- a/report/logisticreport.xlsx
+++ b/report/logisticreport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Logistic_report_extract\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D376BA36-E716-4734-A36D-0CA9C37F6CB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CC520-741C-42DE-BE9F-0F3575310A2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDCDFA85-EBA4-44BF-9784-F6ACFB77183C}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{DDCDFA85-EBA4-44BF-9784-F6ACFB77183C}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Report" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4451727" y="858303"/>
+          <a:off x="5640995" y="814552"/>
           <a:ext cx="330049" cy="152175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2985,8 +2985,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3124,7 +3124,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="19">
-        <v>12250</v>
+        <v>12230</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>5</v>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C16" s="6">
         <f>SUM(C5:C15)-C9</f>
-        <v>790695.3</v>
+        <v>790675.3</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>

--- a/report/logisticreport.xlsx
+++ b/report/logisticreport.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Logistic_report_extract\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CC520-741C-42DE-BE9F-0F3575310A2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E4275-7D93-4950-A09D-7D23E1B20753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{DDCDFA85-EBA4-44BF-9784-F6ACFB77183C}"/>
+    <workbookView xWindow="12600" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{DDCDFA85-EBA4-44BF-9784-F6ACFB77183C}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Report'!$A$4:$O$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Weekly Report'!$A$1:$O$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Weekly Report'!$A$4:$P$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Weekly Report'!$A$1:$P$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
   <si>
     <t>Inv. Amount</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>2012019-PI21-1</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,6 +491,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,7 +525,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>117964</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>219818</xdr:rowOff>
@@ -567,7 +588,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>261055</xdr:rowOff>
@@ -639,7 +660,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>18634</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>51671</xdr:rowOff>
@@ -695,7 +716,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>136958</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47874</xdr:rowOff>
@@ -751,13 +772,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>160645</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>253038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>491507</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
@@ -835,13 +856,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>160556</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>158961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>27001</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161511</xdr:rowOff>
@@ -901,13 +922,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>256441</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>547607</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>159407</xdr:rowOff>
@@ -960,13 +981,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>135021</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>411945</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
@@ -1038,84 +1059,9 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>433406</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152175</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B2B592-9FEF-4B89-B8D4-AA2EEAED08AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5640995" y="814552"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>220601</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
@@ -1135,7 +1081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1171,7 +1117,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>297987</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>3679</xdr:rowOff>
@@ -1191,7 +1137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1202,7 +1148,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId16">
+                <a14:imgLayer r:embed="rId14">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1243,13 +1189,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>549124</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85499</xdr:rowOff>
@@ -1268,7 +1214,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1279,7 +1225,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1318,7 +1264,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>83348</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>50392</xdr:rowOff>
@@ -1338,7 +1284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1374,7 +1320,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>160734</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>54013</xdr:rowOff>
@@ -1394,7 +1340,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1405,7 +1351,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId16">
+                <a14:imgLayer r:embed="rId14">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1446,7 +1392,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>81822</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>8507</xdr:rowOff>
@@ -1466,7 +1412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1477,7 +1423,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1516,147 +1462,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBE2DF1-2F99-4BC1-B7ED-3B386E85EF68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5056357" y="818482"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D238A4-0DA7-404D-9675-9B34502E7F6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5056357" y="818482"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1676,7 +1482,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1687,7 +1493,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1726,77 +1532,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C878644-7690-4C00-9FC4-2E0B86E5A9AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5056357" y="1140867"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1816,7 +1552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1827,7 +1563,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1866,7 +1602,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1886,7 +1622,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -1897,7 +1633,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -1936,219 +1672,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A70938-A2C5-4A0E-87F9-1C48402B33EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5151607" y="1302059"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA36B8E2-6F3C-4485-849E-3F9C6F5DD7FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5453922" y="1148194"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160734</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>54013</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="169885" cy="90721"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="ÙØªÙØ¬Ø© Ø¨Ø­Ø« Ø§ÙØµÙØ± Ø¹Ù âªplane logoâ¬â">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635CA823-2FE5-498D-83C2-9746E1B2B379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId16">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5511299" y="3375339"/>
-          <a:ext cx="169885" cy="90721"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>220601</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
@@ -2168,7 +1692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2204,18 +1728,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160734</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54013</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="169885" cy="90721"/>
+    <xdr:ext cx="330049" cy="155901"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="ÙØªÙØ¬Ø© Ø¨Ø­Ø« Ø§ÙØµÙØ± Ø¹Ù âªplane logoâ¬â">
+        <xdr:cNvPr id="40" name="Picture 39" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89604627-5A50-4362-96FE-3D9CE8D885B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261F0BE0-4E23-4FED-8633-B6E173D60B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +1747,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
@@ -2236,78 +1760,6 @@
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId16">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5511299" y="1528317"/>
-          <a:ext cx="169885" cy="90721"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="155901"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261F0BE0-4E23-4FED-8633-B6E173D60B93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -2346,7 +1798,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2366,7 +1818,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -2377,7 +1829,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -2416,77 +1868,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F1C038-7EF8-49F0-B2E1-4AB743E59865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5453922" y="982542"/>
-          <a:ext cx="330049" cy="152175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -2506,7 +1888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:duotone>
             <a:schemeClr val="accent1">
               <a:shade val="45000"/>
@@ -2517,7 +1899,7 @@
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
+                <a14:imgLayer r:embed="rId16">
                   <a14:imgEffect>
                     <a14:sharpenSoften amount="50000"/>
                   </a14:imgEffect>
@@ -2556,7 +1938,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>220601</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
@@ -2576,7 +1958,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2592,76 +1974,6 @@
         <a:xfrm>
           <a:off x="11103949" y="2136971"/>
           <a:ext cx="350853" cy="108472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>103357</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>5194</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="330049" cy="152175"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="ØµÙØ±Ø© Ø°Ø§Øª ØµÙØ©">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004D5F64-F56D-470F-A889-7E15448E76CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent1">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId13">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="50000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="6631" t="23091" r="6511" b="37944"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5636140" y="1976455"/>
-          <a:ext cx="330049" cy="152175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,10 +2295,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2994,102 +2306,107 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="31"/>
       <c r="N1" s="31"/>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -3100,23 +2417,26 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
@@ -3127,9 +2447,9 @@
         <v>12230</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="24" t="s">
@@ -3138,30 +2458,35 @@
       <c r="G5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25">
+      <c r="H5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="25">
         <v>43478</v>
       </c>
-      <c r="J5" s="25">
+      <c r="K5" s="25">
         <v>43528</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="L5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>43536</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>6</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="25">
         <v>43538</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
@@ -3172,23 +2497,28 @@
         <v>37800</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
@@ -3199,23 +2529,28 @@
         <v>46200</v>
       </c>
       <c r="D7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
@@ -3226,10 +2561,10 @@
         <v>23600</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>5</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>5</v>
@@ -3237,32 +2572,37 @@
       <c r="G8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26">
+      <c r="H8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="26">
         <v>43484</v>
       </c>
-      <c r="J8" s="26">
+      <c r="K8" s="26">
         <v>43530</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="26">
-        <f>J8+13</f>
+      <c r="M8" s="26">
+        <f>K8+13</f>
         <v>43543</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>6</v>
       </c>
       <c r="N8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="26">
-        <f>J8+15</f>
+      <c r="O8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="26">
+        <f>K8+15</f>
         <v>43545</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>40</v>
       </c>
@@ -3272,11 +2612,11 @@
       <c r="C9" s="28">
         <v>15737.2</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>5</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>5</v>
@@ -3284,31 +2624,36 @@
       <c r="G9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25">
+      <c r="H9" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="25">
         <v>43510</v>
       </c>
-      <c r="J9" s="25">
+      <c r="K9" s="25">
         <v>43520</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="L9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="N9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="O9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="25">
-        <f>J9+30</f>
+      <c r="P9" s="25">
+        <f>K9+30</f>
         <v>43550</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
@@ -3319,42 +2664,47 @@
         <v>82034.14</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="26">
+      <c r="H10" s="26">
         <v>43526</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26">
+      <c r="I10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="26">
         <v>43527</v>
       </c>
-      <c r="J10" s="26">
+      <c r="K10" s="26">
         <v>43530</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="L10" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="M10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="N10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="O10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="26">
-        <f>4+7+J10</f>
+      <c r="P10" s="26">
+        <f>4+7+K10</f>
         <v>43541</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
@@ -3365,42 +2715,47 @@
         <v>212644.29</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="25">
         <v>43475</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25">
+      <c r="I11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="25">
         <v>43479</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="25">
         <v>43510</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="L11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="M11" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="25">
+      <c r="N11" s="25">
         <v>43540</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="O11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="25">
-        <f>M11+5</f>
+      <c r="P11" s="25">
+        <f>N11+5</f>
         <v>43545</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
@@ -3411,43 +2766,48 @@
         <v>74677.509999999995</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26">
+      <c r="H12" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="26">
         <v>43510</v>
       </c>
-      <c r="J12" s="26">
-        <f>I12+21</f>
+      <c r="K12" s="26">
+        <f>J12+21</f>
         <v>43531</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="L12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="M12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="N12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="O12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="26">
-        <f>J12+21</f>
+      <c r="P12" s="26">
+        <f>K12+21</f>
         <v>43552</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
@@ -3458,42 +2818,47 @@
         <v>13700</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25">
+      <c r="H13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="25">
         <v>43529</v>
       </c>
-      <c r="J13" s="25">
+      <c r="K13" s="25">
         <v>43531</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="L13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="M13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="N13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="O13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="25">
-        <f>J13+30</f>
+      <c r="P13" s="25">
+        <f>K13+30</f>
         <v>43561</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
@@ -3504,43 +2869,48 @@
         <v>236251.86</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26">
+      <c r="H14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="26">
         <v>43535</v>
       </c>
-      <c r="J14" s="26">
-        <f>I14+21</f>
+      <c r="K14" s="26">
+        <f>J14+21</f>
         <v>43556</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="L14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="M14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="N14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="26" t="s">
+      <c r="O14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="26">
-        <f>J14+30</f>
+      <c r="P14" s="26">
+        <f>K14+30</f>
         <v>43586</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
@@ -3551,31 +2921,34 @@
         <v>51537.5</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="25"/>
+      <c r="M15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="O15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>35</v>
@@ -3584,37 +2957,41 @@
         <f>SUM(C5:C15)-C9</f>
         <v>790675.3</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="27">
         <f>C9</f>
         <v>15737.2</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
@@ -3622,55 +2999,58 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
+      <c r="D22" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G24" s="30" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="30"/>
       <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="2"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H26" s="2"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H27" s="2"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I27" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="O32"/>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P32"/>
     </row>
-    <row r="40" spans="16:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="P40"/>
+    <row r="40" spans="17:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:O16" xr:uid="{5624001A-BBF2-44BE-B12E-B28102EBC91C}">
-    <sortState ref="A5:O24">
+  <autoFilter ref="A4:P16" xr:uid="{5624001A-BBF2-44BE-B12E-B28102EBC91C}">
+    <sortState ref="A5:P24">
       <sortCondition ref="A4"/>
     </sortState>
   </autoFilter>
   <mergeCells count="8">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A22:C22"/>

--- a/report/logisticreport.xlsx
+++ b/report/logisticreport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Logistic_report_extract\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632E4275-7D93-4950-A09D-7D23E1B20753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11381F1C-CDDA-4607-9BC0-AC3E8FBEF304}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{DDCDFA85-EBA4-44BF-9784-F6ACFB77183C}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{DDCDFA85-EBA4-44BF-9784-F6ACFB77183C}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Report" sheetId="1" r:id="rId1"/>
@@ -474,6 +474,12 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -491,12 +497,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2297,8 +2297,8 @@
   </sheetPr>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2328,22 +2328,22 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="9" t="s">
         <v>20</v>
       </c>
@@ -2361,11 +2361,11 @@
       <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="12"/>
       <c r="M2" s="13" t="s">
         <v>29</v>
@@ -2468,7 +2468,7 @@
         <v>43478</v>
       </c>
       <c r="K5" s="25">
-        <v>43528</v>
+        <v>43558</v>
       </c>
       <c r="L5" s="24" t="s">
         <v>5</v>
@@ -2957,7 +2957,7 @@
         <f>SUM(C5:C15)-C9</f>
         <v>790675.3</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
     </row>
@@ -2967,39 +2967,39 @@
         <f>C9</f>
         <v>15737.2</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -3010,19 +3010,19 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I25" s="2"/>
